--- a/Data Files/RawData/Caragory.xlsx
+++ b/Data Files/RawData/Caragory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Katalon Studio\Katalon Mobile\Data Files\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A418E373-A3A8-4026-845D-1265184585E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E57464A-E0A4-4043-9A2C-D34AE006F4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
